--- a/pest_checklist.xlsx
+++ b/pest_checklist.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1992,22 +1992,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>▼下一頁  |  最後一頁  |  頁次:1 / 3</t>
+          <t>51.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>▼下一頁  |  最後一頁  |  頁次:1 / 3</t>
+          <t>Nectriaceae (叢赤殼科)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Gibberella zeae (Schwein. : Fr.) Petch</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2017,34 +2017,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>名彙</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>51.</t>
+          <t>52.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nectriaceae (叢赤殼科)</t>
+          <t>Noctuidae (夜蛾科)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Gibberella zeae (Schwein. : Fr.) Petch</t>
+          <t>Chloridea obsoleta Boisduval</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>棉鈴蟲</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>52.</t>
+          <t>53.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2071,24 +2071,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Chloridea obsoleta Boisduval</t>
+          <t>Naranga aenescens Moore, 1881</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>棉鈴蟲</t>
+          <t>稻螟蛉</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>名彙</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>53.</t>
+          <t>54.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Naranga aenescens Moore, 1881</t>
+          <t>Sesamia inferens (Walker, 1858)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>稻螟蛉</t>
+          <t>夜盜蟲</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>54.</t>
+          <t>55.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2135,24 +2135,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sesamia inferens (Walker, 1858)</t>
+          <t>Spodoptera inferens (Walker)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>夜盜蟲</t>
+          <t>紫螟、蛀心蟲、夜盜蟲、大螟</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>初步</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>55.</t>
+          <t>56.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2167,24 +2167,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Spodoptera inferens (Walker)</t>
+          <t>Spodoptera litura (Fabricius, 1775)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>紫螟、蛀心蟲、夜盜蟲、大螟</t>
+          <t>斜紋夜蛾</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>初步</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>56.</t>
+          <t>57.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2199,12 +2199,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Spodoptera litura (Fabricius, 1775)</t>
+          <t>Spodoptera mauritia (Boisduval, 1833)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>斜紋夜蛾</t>
+          <t>Rice swarming caterpillar</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>57.</t>
+          <t>58.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2226,17 +2226,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Noctuidae (夜蛾科)</t>
+          <t>Pentatomidae (蝽科)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Spodoptera mauritia (Boisduval, 1833)</t>
+          <t>Scotinophara lurida</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rice swarming caterpillar</t>
+          <t>黑蝽象</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2248,27 +2248,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>58.</t>
+          <t>59.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pentatomidae (蝽科)</t>
+          <t>Phanerochaetaceae ()</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Scotinophara lurida</t>
+          <t>Phanerochaete salmonicolor (Berk. &amp; Broome) Jülich</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>黑蝽象</t>
+          <t>露菌病菌</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2280,27 +2280,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>59.</t>
+          <t>60.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Phanerochaetaceae ()</t>
+          <t>Phycitidae (捲蛾科)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Phanerochaete salmonicolor (Berk. &amp; Broome) Jülich</t>
+          <t>Plodia interpunctella (Hubner, 1813)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>露菌病菌</t>
+          <t>印度穀蛾</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2312,39 +2312,39 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>60.</t>
+          <t>61.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Phycitidae (捲蛾科)</t>
+          <t>Pleosporaceae (格孢腔菌科)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Plodia interpunctella (Hubner, 1813)</t>
+          <t>Bipolaris maydis (Y. Nisik. &amp; C. Miyake) Shoemaker</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>印度穀蛾</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>名彙</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>61.</t>
+          <t>62.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Bipolaris maydis (Y. Nisik. &amp; C. Miyake) Shoemaker</t>
+          <t>Cochliobolus heterostrophus (Drechsler) Drechsler</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>胡麻葉枯病</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>62.</t>
+          <t>63.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cochliobolus heterostrophus (Drechsler) Drechsler</t>
+          <t>Exserohilum rostratum (Drechsler) Leonard &amp; Suggs</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>胡麻葉枯病</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2408,7 +2408,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>63.</t>
+          <t>64.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Exserohilum rostratum (Drechsler) Leonard &amp; Suggs</t>
+          <t>Setosphaeria turcica (Luttr.) K. J. Leonard &amp; Suggs</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>葉枯病</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2440,39 +2440,39 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>64.</t>
+          <t>65.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>草害</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pleosporaceae (格孢腔菌科)</t>
+          <t>Poaceae (gramineae) (禾本科)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Setosphaeria turcica (Luttr.) K. J. Leonard &amp; Suggs</t>
+          <t>Cynodon dactylon (L.) Pers.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>葉枯病</t>
+          <t>狗牙根</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>名彙</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>65.</t>
+          <t>66.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cynodon dactylon (L.) Pers.</t>
+          <t>Dactyloctenium aegyptium (L.) Beauv. 1812</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>狗牙根</t>
+          <t>龍爪茅</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>66.</t>
+          <t>67.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dactyloctenium aegyptium (L.) Beauv. 1812</t>
+          <t>Digitaria sanguinalis (L.) Scop. 1771</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>龍爪茅</t>
+          <t>指草</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>67.</t>
+          <t>68.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Digitaria sanguinalis (L.) Scop. 1771</t>
+          <t>Digitaria setigera 1817</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>指草</t>
+          <t>短穎馬唐、大指草</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>68.</t>
+          <t>69.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Digitaria setigera 1817</t>
+          <t>Digitaria violascens Link</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>短穎馬唐、大指草</t>
+          <t>紫果馬唐, 紫馬唐, 五指草</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2600,7 +2600,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>69.</t>
+          <t>70.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Digitaria violascens Link</t>
+          <t>Setaria glauca (L.) P. Beauv.  1812</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>紫果馬唐, 紫馬唐, 五指草</t>
+          <t>金毛狗尾草</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>70.</t>
+          <t>71.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Setaria glauca (L.) P. Beauv.  1812</t>
+          <t>Setaria viridis (L.) Beauv 1812</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>金毛狗尾草</t>
+          <t>莠草</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2664,7 +2664,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>71.</t>
+          <t>72.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2679,12 +2679,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Setaria viridis (L.) Beauv 1812</t>
+          <t>Sorghum halepense  (L.) Pers. 1805</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>莠草</t>
+          <t>詹森草</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2696,39 +2696,39 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>72.</t>
+          <t>73.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>草害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Poaceae (gramineae) (禾本科)</t>
+          <t>Potyviridae (馬鈴薯Y病毒科)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sorghum halepense  (L.) Pers. 1805</t>
+          <t>Potyvirus Maize dwarf mosaic virus-A (MDMV-A)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>詹森草</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>名彙</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73.</t>
+          <t>74.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Potyvirus Maize dwarf mosaic virus-A (MDMV-A)</t>
+          <t>Potyvirus Maize dwarf mosaic virus-B (MDMV-B)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2760,7 +2760,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>74.</t>
+          <t>75.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2775,24 +2775,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Potyvirus Maize dwarf mosaic virus-B (MDMV-B)</t>
+          <t>Potyvirus Sugarcane mosaic virus</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>玉米矮化嵌紋病毒Ｂ型系統</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>名彙</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>75.</t>
+          <t>76.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2802,93 +2802,93 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Potyviridae (馬鈴薯Y病毒科)</t>
+          <t>Pratylenchidae (前口刺線蟲科)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Potyvirus Sugarcane mosaic virus</t>
+          <t>Pratylenchus spp.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>玉米矮化嵌紋病毒Ｂ型系統</t>
+          <t>番石榴線蟲病害</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>初步</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>76.</t>
+          <t>77.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pratylenchidae (前口刺線蟲科)</t>
+          <t>Pseudococcidae (粉介殼蟲科)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Pratylenchus spp.</t>
+          <t>Brevennia rehi (Lindinger, 1943）</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>番石榴線蟲病害</t>
+          <t>粉介殼蟲</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>初步</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>77.</t>
+          <t>78.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pseudococcidae (粉介殼蟲科)</t>
+          <t>Pucciniaceae (有柄銹菌科)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Brevennia rehi (Lindinger, 1943）</t>
+          <t>Puccinia maydis Bérenger</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>粉介殼蟲</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>名彙</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>78.</t>
+          <t>79.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Puccinia maydis Bérenger</t>
+          <t>Puccinia polysore Underw</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>79.</t>
+          <t>80.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Puccinia polysore Underw</t>
+          <t>Puccinia sorghi Schwein.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2952,39 +2952,39 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>80.</t>
+          <t>81.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pucciniaceae (有柄銹菌科)</t>
+          <t>Pyralidae (螟蛾科)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Puccinia sorghi Schwein.</t>
+          <t>Chilo suppressalis (Walker, 1863)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>稻條螟</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>名彙</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>81.</t>
+          <t>82.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Chilo suppressalis (Walker, 1863)</t>
+          <t>Cnaphalocrocis medinalis (Guenée, 1854)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>稻條螟</t>
+          <t>稻縱捲葉蟲</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3016,27 +3016,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>82.</t>
+          <t>83.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pyralidae (螟蛾科)</t>
+          <t>Pythiaceae (腐霉科)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cnaphalocrocis medinalis (Guenée, 1854)</t>
+          <t>Pythium aphanidermatum (Edson) Fitzp.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>稻縱捲葉蟲</t>
+          <t>Citrus Seedling Damping-Off</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>83.</t>
+          <t>84.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3063,24 +3063,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Pythium aphanidermatum (Edson) Fitzp.</t>
+          <t>Pythium arrhenomanes Drechsler</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Citrus Seedling Damping-Off</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>名彙</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>84.</t>
+          <t>85.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Pythium arrhenomanes Drechsler</t>
+          <t>Pythium graminicolum Subam.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3112,39 +3112,39 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>85.</t>
+          <t>86.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pythiaceae (腐霉科)</t>
+          <t>Scarabaeidae (金龜子科)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pythium graminicolum Subam.</t>
+          <t>Adoretus sinicus Burmeister, 1855</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>華喙麗金龜</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>名彙</t>
+          <t>初步</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>86.</t>
+          <t>87.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3159,24 +3159,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Adoretus sinicus Burmeister, 1855</t>
+          <t>Anomala expansa (Bates, 1866)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>華喙麗金龜</t>
+          <t>青銅金龜</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>初步</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>87.</t>
+          <t>88.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3191,76 +3191,76 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Anomala expansa (Bates, 1866)</t>
+          <t>Protaetia (Liocola) brevitarsis (Lewis, 1879)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>青銅金龜</t>
+          <t>中國潛花金龜, 白點花金龜</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>初步</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>88.</t>
+          <t>89.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Scarabaeidae (金龜子科)</t>
+          <t>Sclerosporaceae (指梗黴科)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Protaetia (Liocola) brevitarsis (Lewis, 1879)</t>
+          <t>Peronosclerospora sacchari (T. Miyake) Shirai &amp; Hara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>中國潛花金龜, 白點花金龜</t>
+          <t>露菌病菌</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>初步</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>89.</t>
+          <t>90.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sclerosporaceae (指梗黴科)</t>
+          <t>Silvanidae (細扁蟲科)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Peronosclerospora sacchari (T. Miyake) Shirai &amp; Hara</t>
+          <t>Ahasverus advena Waltl, 1832</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>露菌病菌</t>
+          <t>背圓粉扁蟲</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3272,7 +3272,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>90.</t>
+          <t>91.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3282,17 +3282,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Silvanidae (細扁蟲科)</t>
+          <t>Tenebrionidae (擬步行蟲科)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ahasverus advena Waltl, 1832</t>
+          <t>Alphitobius diaperinus (Panzer, 1797)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>背圓粉扁蟲</t>
+          <t>外米偽步行蟲</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>91.</t>
+          <t>92.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Alphitobius diaperinus (Panzer, 1797)</t>
+          <t>Tribolium castaneum (Herbst, 1797)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>外米偽步行蟲</t>
+          <t>紅頭狗</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3336,39 +3336,39 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>92.</t>
+          <t>93.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>蟎害</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tenebrionidae (擬步行蟲科)</t>
+          <t>Tetranychidae (葉蟎科)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tribolium castaneum (Herbst, 1797)</t>
+          <t>Tetranychus cinnabarinus (Boisduval), 1758</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>紅頭狗</t>
+          <t>朱砂葉蟎</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t>初步</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>93.</t>
+          <t>94.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tetranychus cinnabarinus (Boisduval), 1758</t>
+          <t>Tetranychus kanzawai Kishida, 1927</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>朱砂葉蟎</t>
+          <t>神澤葉蟎</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3400,39 +3400,39 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>94.</t>
+          <t>95.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>蟎害</t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tetranychidae (葉蟎科)</t>
+          <t>Tettigoniidae (螽蟴科)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tetranychus kanzawai Kishida, 1927</t>
+          <t>Mecopoda elongata (Linnaeus)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>神澤葉蟎</t>
+          <t>桑褐螽蟴</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>初步</t>
+          <t>名彙</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>95.</t>
+          <t>96.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3442,17 +3442,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Tettigoniidae (螽蟴科)</t>
+          <t>Thripidae (薊馬科)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mecopoda elongata (Linnaeus)</t>
+          <t>Haplothrips aculeatus</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>桑褐螽蟴</t>
+          <t>稻管薊馬</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>96.</t>
+          <t>97.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Haplothrips aculeatus</t>
+          <t>Haplothrips chinensis Priesner, 1936</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>稻管薊馬</t>
+          <t>中華管薊馬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>97.</t>
+          <t>98.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Haplothrips chinensis Priesner, 1936</t>
+          <t>Megalurothrips usitatus (Bagnall)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>中華管薊馬</t>
+          <t>豆花薊馬</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>98.</t>
+          <t>99.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Megalurothrips usitatus (Bagnall)</t>
+          <t>Stenchaetothrips biformis (Bagnall, 1913)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>豆花薊馬</t>
+          <t>稻直鬃薊馬</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3560,7 +3560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>99.</t>
+          <t>100.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Stenchaetothrips biformis (Bagnall, 1913)</t>
+          <t>Thrips hawaiiensis (Morgan, 1913)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>稻直鬃薊馬</t>
+          <t>黃胸薊馬</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>名彙</t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>100.</t>
+          <t>101.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3607,12 +3607,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Thrips hawaiiensis (Morgan, 1913)</t>
+          <t>Thrips palmi Karny, 1925</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>黃胸薊馬</t>
+          <t>節瓜薊馬</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3624,39 +3624,39 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>▲上一頁  |  ▼下一頁  |  最後一頁  |  頁次:2 / 3</t>
+          <t>102.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>蟲害</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>▲上一頁  |  ▼下一頁  |  最後一頁  |  頁次:2 / 3</t>
+          <t>Trogossitidae (穀盜科)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Lophocateres pusillus (Klug, 1832)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>暹邏穀盜</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>完整</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>101.</t>
+          <t>103.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3666,17 +3666,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Thripidae (薊馬科)</t>
+          <t>Trogossitidae (穀盜科)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Thrips palmi Karny, 1925</t>
+          <t>Tenebroides mauritanicus (Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>節瓜薊馬</t>
+          <t>穀盜</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3688,27 +3688,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>102.</t>
+          <t>104.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Trogossitidae (穀盜科)</t>
+          <t>Ustilaginaceae ()</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Lophocateres pusillus (Klug, 1832)</t>
+          <t>Ustilago maydis (DC.) Corda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>暹邏穀盜</t>
+          <t>黑穗病菌</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3720,27 +3720,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>103.</t>
+          <t>105.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>蟲害</t>
+          <t>病害</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trogossitidae (穀盜科)</t>
+          <t>Xanthomonadaceae (黃色單胞菌科)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tenebroides mauritanicus (Linnaeus, 1758)</t>
+          <t>Xanthomonas campestris pv. mangiferaeindicae Patel et al.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>穀盜</t>
+          <t>芒果黑斑病病菌</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3752,71 +3752,71 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>104.</t>
+          <t>第一頁  |  ▲上一頁  |  頁次:3 / 3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ustilaginaceae ()</t>
+          <t>第一頁  |  ▲上一頁  |  頁次:3 / 3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ustilago maydis (DC.) Corda</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>黑穗病菌</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>105.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>病害</t>
+          <t>第一頁  |  ▲上一頁  |  頁次:3 / 3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Xanthomonadaceae (黃色單胞菌科)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. mangiferaeindicae Patel et al.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>芒果黑斑病病菌</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>完整</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>第一頁  |  ▲上一頁  |  頁次:3 / 3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>第一頁  |  ▲上一頁  |  頁次:3 / 3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>第一頁  |  ▲上一頁  |  頁次:3 / 3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5184,102 +5184,6 @@
         </is>
       </c>
       <c r="F151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
